--- a/testDB.xlsx
+++ b/testDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="12">
   <si>
     <t>Ticker</t>
   </si>
@@ -23,6 +23,33 @@
   </si>
   <si>
     <t>Date2</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>30.09.2022</t>
+  </si>
+  <si>
+    <t>18.10.2022</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>27.09.2022</t>
+  </si>
+  <si>
+    <t>20.10.2022</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>12.10.2022</t>
+  </si>
+  <si>
+    <t>21.10.2022</t>
   </si>
 </sst>
 </file>
@@ -354,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +398,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
